--- a/C.J._Beathard2018.xlsx
+++ b/C.J._Beathard2018.xlsx
@@ -15,171 +15,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
-  <si>
-    <t>https://www.pro-football-reference.com/players/B/BeatC.00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-09-23</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+  <si>
+    <t>Beathard</t>
+  </si>
+  <si>
+    <t>C.J.</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>24.318</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>L 27-29</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>62.16</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>82.9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8.05</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2018-10-07</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>24.325</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>L 18-28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>62.96</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>78.4</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>24.333</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>L 30-33</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>69.57</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>115.3</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10.65</t>
+  </si>
+  <si>
+    <t>10.43</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>24.311</t>
-  </si>
-  <si>
-    <t>SFO</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>KAN</t>
-  </si>
-  <si>
-    <t>L 27-38</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2018-09-30</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>24.318</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>L 27-29</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>62.16</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>82.9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8.05</t>
-  </si>
-  <si>
-    <t>6.70</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>2018-10-07</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>24.325</t>
-  </si>
-  <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>L 18-28</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>62.96</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>78.4</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>6.46</t>
-  </si>
-  <si>
-    <t>5.54</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2018-10-15</t>
-  </si>
-  <si>
-    <t>24.333</t>
-  </si>
-  <si>
-    <t>GNB</t>
-  </si>
-  <si>
-    <t>L 30-33</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>69.57</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>115.3</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>10.65</t>
-  </si>
-  <si>
-    <t>10.43</t>
   </si>
   <si>
     <t>21</t>
@@ -605,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,533 +632,495 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s"/>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s"/>
-      <c r="T1" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
       <c r="X1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AB1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AC1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AD1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AE1" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>329.68</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>8</v>
-      </c>
       <c r="AA2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>341.78</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AD3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>457.24</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H4" t="s"/>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" t="s">
-        <v>53</v>
-      </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="X4" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>210.48</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" t="s">
-        <v>66</v>
-      </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="X5" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AD5" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" t="s">
-        <v>83</v>
-      </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>327.6</v>
       </c>
     </row>
   </sheetData>
